--- a/wls-hydr/sysconfig_discovery.xlsx
+++ b/wls-hydr/sysconfig_discovery.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\MAA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FERCASTR\Documents\PaaS\OCI\DR\Hybrid\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F5010C-386C-435C-ABBC-FB89E733BE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7665" windowHeight="4245"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="short_test2" sheetId="1" r:id="rId1"/>
@@ -24,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="150">
   <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>10.100.100.0/24</t>
   </si>
   <si>
     <t>Webtier Subnet Name</t>
@@ -156,10 +154,6 @@
     <t>VM.Standard2.16</t>
   </si>
   <si>
-    <t>OCI
-WLS instances</t>
-  </si>
-  <si>
     <t>VCN name</t>
   </si>
   <si>
@@ -241,18 +235,6 @@
     <t>oci-storage-fss-mounttargets-prefix/name</t>
   </si>
   <si>
-    <t>oci-storage-fss-sharedconfig-name/name</t>
-  </si>
-  <si>
-    <t>oci-storage-fss-runtime-name/name</t>
-  </si>
-  <si>
-    <t>oci-storage-fss-sharedconfig-export_path/path</t>
-  </si>
-  <si>
-    <t>oci-storage-fss-runtime-export_path/path</t>
-  </si>
-  <si>
     <t>Bastion location</t>
   </si>
   <si>
@@ -274,9 +256,6 @@
     <t>oci-ssh_private_key/path</t>
   </si>
   <si>
-    <t>OHS host prefix</t>
-  </si>
-  <si>
     <t>oci-ohs-node_prefix/hostname</t>
   </si>
   <si>
@@ -346,6 +325,90 @@
     <t>CA certificate path (leave blank for self-signed certs)</t>
   </si>
   <si>
+    <t>CA certificate passphrase (leave blank if not used)</t>
+  </si>
+  <si>
+    <t>oci-lbr-virt_host_ohs_port/opt</t>
+  </si>
+  <si>
+    <t>oci-lbr-virt_host_hostname/opt</t>
+  </si>
+  <si>
+    <t>oci-lbr-virt_host_lbr_port/opt</t>
+  </si>
+  <si>
+    <t>Custom value required?</t>
+  </si>
+  <si>
+    <t>We can DELETE this from the spreadsheet (now is always "oci")</t>
+  </si>
+  <si>
+    <t>needs custom input</t>
+  </si>
+  <si>
+    <t>We can DELETE this from the spreadsheet (now is always "No", because VCN must exist for the bastion)</t>
+  </si>
+  <si>
+    <t>default value  (column E) can be used</t>
+  </si>
+  <si>
+    <t>Optional, provide only if explicitly required</t>
+  </si>
+  <si>
+    <t>oci-lbr-admin_hostname_value/opt</t>
+  </si>
+  <si>
+    <t>compartment_ocid</t>
+  </si>
+  <si>
+    <t>/path/to/public/key</t>
+  </si>
+  <si>
+    <t>/path/to/private/key</t>
+  </si>
+  <si>
+    <t>VCN-NAME</t>
+  </si>
+  <si>
+    <t>10.1.1.0/24</t>
+  </si>
+  <si>
+    <t>webtierSubnet</t>
+  </si>
+  <si>
+    <t>midtierSubnet</t>
+  </si>
+  <si>
+    <t>dbtierSubnet</t>
+  </si>
+  <si>
+    <t>fsstierSubnet</t>
+  </si>
+  <si>
+    <t>10.1.1.32/27</t>
+  </si>
+  <si>
+    <t>10.1.1.64/26</t>
+  </si>
+  <si>
+    <t>10.1.1.128/26</t>
+  </si>
+  <si>
+    <t>10.1.1.192/26</t>
+  </si>
+  <si>
+    <t>DRmountTarget</t>
+  </si>
+  <si>
+    <t>wlsconfigFSS</t>
+  </si>
+  <si>
+    <t>wlsruntimeFSS</t>
+  </si>
+  <si>
+    <t>wlsproductsFSS</t>
+  </si>
+  <si>
     <t>/export/wlsconfig</t>
   </si>
   <si>
@@ -355,64 +418,13 @@
     <t>/export/wlsproducts</t>
   </si>
   <si>
-    <t>shortWebtier</t>
-  </si>
-  <si>
-    <t>shortMidtier</t>
-  </si>
-  <si>
-    <t>shortDbtier</t>
-  </si>
-  <si>
-    <t>shortFsstier</t>
-  </si>
-  <si>
-    <t>shortDRmountTarget</t>
-  </si>
-  <si>
-    <t>shortWlsconfigFSS</t>
-  </si>
-  <si>
-    <t>shortWlsruntimeFSS</t>
-  </si>
-  <si>
-    <t>shortWlsproductsFSS</t>
-  </si>
-  <si>
-    <t>shortWls</t>
-  </si>
-  <si>
-    <t>shortOhs</t>
-  </si>
-  <si>
-    <t>shortLBR</t>
-  </si>
-  <si>
-    <t>10.1.112.0/24</t>
-  </si>
-  <si>
-    <t>10.1.112.32/27</t>
-  </si>
-  <si>
-    <t>10.1.112.64/26</t>
-  </si>
-  <si>
-    <t>10.1.112.128/26</t>
-  </si>
-  <si>
-    <t>10.1.112.192/26</t>
-  </si>
-  <si>
-    <t>compartment_oci</t>
-  </si>
-  <si>
-    <t>/path/to/public/key</t>
-  </si>
-  <si>
-    <t>/path/to/private/key</t>
-  </si>
-  <si>
-    <t>VCN-NAME</t>
+    <t>WlsNode</t>
+  </si>
+  <si>
+    <t>OhsNode</t>
+  </si>
+  <si>
+    <t>LBR</t>
   </si>
   <si>
     <t>/path/to/mycert.crt</t>
@@ -421,14 +433,59 @@
     <t>/path/to/mycert.key</t>
   </si>
   <si>
-    <t>CA certificate passphrase (leave blank if not used)</t>
+    <t>10.100.100.0/24</t>
+  </si>
+  <si>
+    <t>OHS host prefix     (Clear value if not used)</t>
+  </si>
+  <si>
+    <t>OCI WLS instances</t>
+  </si>
+  <si>
+    <t>oci-lbr-admin_port/opt</t>
+  </si>
+  <si>
+    <t>oci-ohs-console_port/opt</t>
+  </si>
+  <si>
+    <t>oci-storage-fss-sharedconfig-name/</t>
+  </si>
+  <si>
+    <t>oci-storage-fss-runtime-name/</t>
+  </si>
+  <si>
+    <t>oci-storage-fss-sharedconfig-export_path/</t>
+  </si>
+  <si>
+    <t>oci-storage-fss-runtime-export_path/</t>
+  </si>
+  <si>
+    <t>OPTIONAL Advanced  Configuration</t>
+  </si>
+  <si>
+    <t>Internal virtual host-Frontend Name (e.g. for internal accesses like OWSM)      (leave blank if not used)</t>
+  </si>
+  <si>
+    <t>Internal virtual host-LBR Port  (e.g. for internal accesses like OWSM)                   (leave blank if not used)</t>
+  </si>
+  <si>
+    <t>Internal virtual host-OHS HTTP port (e.g. for internal accesses like OWSM)        (leave blank if not used)</t>
+  </si>
+  <si>
+    <t>Virtual host for WebLogic Admin Console-Frontend Name                                      (leave blank if not used)</t>
+  </si>
+  <si>
+    <t>Virtual host for WebLogic Admin Console-LBR Port                                                    (leave blank if not used)</t>
+  </si>
+  <si>
+    <t>Virtual host for WebLogic Admin Console-OHS HTTP port                                        (leave blank if not used)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,8 +533,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,8 +566,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -511,11 +586,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -536,6 +651,27 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -545,8 +681,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -824,209 +967,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:W70"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="A41:XFD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="106" customWidth="1"/>
+    <col min="3" max="3" width="85.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>17</v>
+      <c r="F1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="5" t="s">
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
         <v>79</v>
       </c>
-      <c r="D4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="6"/>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="P10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
       <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="P11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
+        <v>3</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -1040,19 +1219,22 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -1066,19 +1248,22 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
+        <v>6</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -1092,19 +1277,22 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
+        <v>7</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1118,19 +1306,22 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="X15" s="6"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
       <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -1144,19 +1335,22 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
       <c r="B17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
+        <v>9</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -1170,19 +1364,22 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="X17" s="6"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -1196,19 +1393,22 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="X18" s="6"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
       <c r="B19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
-      </c>
-      <c r="J19" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>119</v>
+      </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -1222,19 +1422,22 @@
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="X19" s="6"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
       <c r="B20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
+        <v>12</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>120</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -1248,19 +1451,22 @@
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="X20" s="6"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
-      </c>
-      <c r="J21" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>121</v>
+      </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -1274,19 +1480,22 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="X21" s="6"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
       <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
+        <v>15</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
         <v>0</v>
       </c>
-      <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -1300,19 +1509,22 @@
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="X22" s="6"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="7">
+        <v>19</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="7">
         <v>22</v>
       </c>
-      <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -1326,344 +1538,472 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
-    </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="X23" s="6"/>
+    </row>
+    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="25"/>
+      <c r="B42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="25"/>
+      <c r="B43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="25"/>
+      <c r="B44" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
+      <c r="B45" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="25"/>
+      <c r="B46" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+    </row>
+    <row r="61" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9"/>
+    </row>
+    <row r="64" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9"/>
+    </row>
+    <row r="67" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9"/>
+    </row>
+    <row r="68" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="9"/>
+    </row>
+    <row r="74" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9"/>
+    </row>
+    <row r="75" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-    </row>
-    <row r="55" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-    </row>
-    <row r="58" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-    </row>
-    <row r="61" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-    </row>
-    <row r="62" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-    </row>
-    <row r="68" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-    </row>
-    <row r="69" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>77</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:A23"/>
     <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A41:A46"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes if this subnet should be private, otherwise select No" sqref="B14:B17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is the mount target name displayed in OCI console" sqref="B24"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes if this subnet should be private, otherwise select No" sqref="B14:B17" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is the mount target name displayed in OCI console" sqref="B24" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22 D6:D7 D15:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15:E17 E6:E7 E22" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D14">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E14" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>$A$69:$A$70</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>$A$75:$A$76</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34:D35">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E34:E35" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>10</formula1>
       <formula2>4800</formula2>
     </dataValidation>

--- a/wls-hydr/sysconfig_discovery.xlsx
+++ b/wls-hydr/sysconfig_discovery.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FERCASTR\Documents\PaaS\OCI\DR\Hybrid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\repos\maa\wls-hydr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F5010C-386C-435C-ABBC-FB89E733BE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF01BC84-533C-40F3-9C2F-DB372AC879F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="short_test2" sheetId="1" r:id="rId1"/>
@@ -154,12 +154,6 @@
     <t>VM.Standard2.16</t>
   </si>
   <si>
-    <t>VCN name</t>
-  </si>
-  <si>
-    <t>VCN CIDR</t>
-  </si>
-  <si>
     <t>Create VCN?</t>
   </si>
   <si>
@@ -256,9 +250,6 @@
     <t>oci-ssh_private_key/path</t>
   </si>
   <si>
-    <t>oci-ohs-node_prefix/hostname</t>
-  </si>
-  <si>
     <t>OCI OHS instances</t>
   </si>
   <si>
@@ -346,15 +337,9 @@
     <t>needs custom input</t>
   </si>
   <si>
-    <t>We can DELETE this from the spreadsheet (now is always "No", because VCN must exist for the bastion)</t>
-  </si>
-  <si>
     <t>default value  (column E) can be used</t>
   </si>
   <si>
-    <t>Optional, provide only if explicitly required</t>
-  </si>
-  <si>
     <t>oci-lbr-admin_hostname_value/opt</t>
   </si>
   <si>
@@ -479,6 +464,21 @@
   </si>
   <si>
     <t>Virtual host for WebLogic Admin Console-OHS HTTP port                                        (leave blank if not used)</t>
+  </si>
+  <si>
+    <t>oci-ohs-node_prefix/opt</t>
+  </si>
+  <si>
+    <t>We can DELETE this from the spreadsheet (now is always "No" because VCN must exist for the bastion)</t>
+  </si>
+  <si>
+    <t>Optional - provide only if explicitly required</t>
+  </si>
+  <si>
+    <t>Existing VCN Name</t>
+  </si>
+  <si>
+    <t>Existing VCN CIDR</t>
   </si>
 </sst>
 </file>
@@ -973,24 +973,24 @@
   </sheetPr>
   <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="A41:XFD46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="106" customWidth="1"/>
-    <col min="3" max="3" width="85.33203125" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -998,7 +998,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
@@ -1014,141 +1014,141 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
         <v>104</v>
       </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
       <c r="E5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -1164,19 +1164,19 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1192,19 +1192,19 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1221,19 +1221,19 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -1250,16 +1250,16 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -1279,16 +1279,16 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -1308,16 +1308,16 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
@@ -1337,16 +1337,16 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
@@ -1366,19 +1366,19 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -1395,19 +1395,19 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1424,19 +1424,19 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -1453,19 +1453,19 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -1482,16 +1482,16 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
         <v>0</v>
@@ -1511,16 +1511,16 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" s="7">
         <v>22</v>
@@ -1540,7 +1540,7 @@
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
     </row>
-    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>24</v>
       </c>
@@ -1548,332 +1548,332 @@
         <v>25</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" t="s">
-        <v>64</v>
-      </c>
       <c r="E31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E35">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>107</v>
-      </c>
       <c r="D44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>21</v>
       </c>
@@ -1882,102 +1882,102 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
     </row>
-    <row r="61" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
     </row>
-    <row r="64" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
     </row>
-    <row r="67" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
     </row>
-    <row r="68" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
     </row>
-    <row r="74" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
     </row>
-    <row r="75" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/wls-hydr/sysconfig_discovery.xlsx
+++ b/wls-hydr/sysconfig_discovery.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\repos\maa\wls-hydr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF01BC84-533C-40F3-9C2F-DB372AC879F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51C6548-2001-4399-AD2D-0F72052EA08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="152">
   <si>
     <t>Yes</t>
   </si>
@@ -451,21 +451,6 @@
     <t>Internal virtual host-Frontend Name (e.g. for internal accesses like OWSM)      (leave blank if not used)</t>
   </si>
   <si>
-    <t>Internal virtual host-LBR Port  (e.g. for internal accesses like OWSM)                   (leave blank if not used)</t>
-  </si>
-  <si>
-    <t>Internal virtual host-OHS HTTP port (e.g. for internal accesses like OWSM)        (leave blank if not used)</t>
-  </si>
-  <si>
-    <t>Virtual host for WebLogic Admin Console-Frontend Name                                      (leave blank if not used)</t>
-  </si>
-  <si>
-    <t>Virtual host for WebLogic Admin Console-LBR Port                                                    (leave blank if not used)</t>
-  </si>
-  <si>
-    <t>Virtual host for WebLogic Admin Console-OHS HTTP port                                        (leave blank if not used)</t>
-  </si>
-  <si>
     <t>oci-ohs-node_prefix/opt</t>
   </si>
   <si>
@@ -479,13 +464,34 @@
   </si>
   <si>
     <t>Existing VCN CIDR</t>
+  </si>
+  <si>
+    <t>prem-wls-vipaddress/opt</t>
+  </si>
+  <si>
+    <t>If the Admin Server listens in a Virtual IP address, provide the virtual FQDN hostname value (e.g. asvip.example.com)    (leave blank if not used)</t>
+  </si>
+  <si>
+    <t>Virtual host for WebLogic Admin Console-OHS HTTP port                                                                                                                                 (leave blank if not used)</t>
+  </si>
+  <si>
+    <t>Internal virtual host-OHS HTTP port (e.g. for internal accesses like OWSM)                                                                                              (leave blank if not used)</t>
+  </si>
+  <si>
+    <t>Internal virtual host-LBR Port  (e.g. for internal accesses like OWSM)                                                                                                          (leave blank if not used)</t>
+  </si>
+  <si>
+    <t>Virtual host for WebLogic Admin Console-Frontend Name                                                                                                                              (leave blank if not used)</t>
+  </si>
+  <si>
+    <t>Virtual host for WebLogic Admin Console-LBR Port                                                                                                                                              (leave blank if not used)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +546,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -578,34 +600,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -625,12 +623,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -666,12 +673,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -681,10 +693,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -971,16 +983,16 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:X76"/>
+  <dimension ref="A1:X77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="106" customWidth="1"/>
+    <col min="2" max="2" width="127.28515625" customWidth="1"/>
     <col min="3" max="3" width="85.28515625" customWidth="1"/>
     <col min="4" max="4" width="45.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="49.85546875" bestFit="1" customWidth="1"/>
@@ -1004,18 +1016,18 @@
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1032,7 +1044,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="5" t="s">
         <v>54</v>
       </c>
@@ -1047,7 +1059,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="5" t="s">
         <v>56</v>
       </c>
@@ -1062,7 +1074,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5" t="s">
         <v>70</v>
       </c>
@@ -1077,7 +1089,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5" t="s">
         <v>58</v>
       </c>
@@ -1092,12 +1104,12 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
         <v>42</v>
@@ -1107,9 +1119,9 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>101</v>
@@ -1122,9 +1134,9 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>101</v>
@@ -1137,7 +1149,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
@@ -1165,7 +1177,7 @@
       <c r="X10" s="6"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1193,7 +1205,7 @@
       <c r="X11" s="6"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
@@ -1222,7 +1234,7 @@
       <c r="X12" s="6"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
@@ -1251,7 +1263,7 @@
       <c r="X13" s="6"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1292,7 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1309,7 +1321,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1338,7 +1350,7 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1379,7 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
@@ -1396,7 +1408,7 @@
       <c r="X18" s="6"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
@@ -1425,7 +1437,7 @@
       <c r="X19" s="6"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -1454,7 +1466,7 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
@@ -1483,7 +1495,7 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
@@ -1512,7 +1524,7 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
@@ -1541,7 +1553,7 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1558,7 +1570,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1573,7 +1585,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
@@ -1588,7 +1600,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -1603,7 +1615,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="5" t="s">
         <v>28</v>
       </c>
@@ -1618,7 +1630,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="5" t="s">
         <v>29</v>
       </c>
@@ -1633,7 +1645,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="5" t="s">
         <v>60</v>
       </c>
@@ -1675,14 +1687,14 @@
         <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E32" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="26" t="s">
         <v>85</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1699,7 +1711,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="5" t="s">
         <v>92</v>
       </c>
@@ -1714,7 +1726,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="5" t="s">
         <v>93</v>
       </c>
@@ -1729,7 +1741,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="5" t="s">
         <v>86</v>
       </c>
@@ -1744,7 +1756,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="5" t="s">
         <v>94</v>
       </c>
@@ -1756,7 +1768,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="5" t="s">
         <v>87</v>
       </c>
@@ -1771,7 +1783,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="5" t="s">
         <v>95</v>
       </c>
@@ -1800,183 +1812,195 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="27" t="s">
         <v>138</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D41" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D43" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="D44" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="5" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+    <row r="60" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-    </row>
     <row r="61" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="A61" s="9"/>
     </row>
     <row r="62" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-    </row>
     <row r="64" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="A64" s="9"/>
     </row>
     <row r="65" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
     </row>
     <row r="67" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
     </row>
     <row r="68" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="A68" s="9"/>
     </row>
     <row r="69" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
     </row>
     <row r="74" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
     </row>
     <row r="75" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="9"/>
+    </row>
+    <row r="76" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1986,9 +2010,9 @@
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A41:A47"/>
   </mergeCells>
-  <dataValidations count="7">
+  <dataValidations disablePrompts="1" count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes if this subnet should be private, otherwise select No" sqref="B14:B17" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is the mount target name displayed in OCI console" sqref="B24" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -2001,7 +2025,7 @@
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>$A$75:$A$76</formula1>
+      <formula1>$A$76:$A$77</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E34:E35" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>10</formula1>
@@ -2010,5 +2034,9 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000 Confidential - Oracle Restricted&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential - Oracle Restricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/wls-hydr/sysconfig_discovery.xlsx
+++ b/wls-hydr/sysconfig_discovery.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\repos\maa\wls-hydr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\OraHubProjects\fmw-maa\wls-hydr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51C6548-2001-4399-AD2D-0F72052EA08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17226189-1A01-41AC-AB72-1E1A1638AF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="short_test2" sheetId="1" r:id="rId1"/>
@@ -289,12 +289,6 @@
     <t>OCI Load Balancer</t>
   </si>
   <si>
-    <t>Public certificate path</t>
-  </si>
-  <si>
-    <t>Certificate private key</t>
-  </si>
-  <si>
     <t>oci-lbr-public_certificate/path</t>
   </si>
   <si>
@@ -485,6 +479,12 @@
   </si>
   <si>
     <t>Virtual host for WebLogic Admin Console-LBR Port                                                                                                                                              (leave blank if not used)</t>
+  </si>
+  <si>
+    <t>Public certificate path (in PEM format)</t>
+  </si>
+  <si>
+    <t>Certificate private key (in PEM format)</t>
   </si>
 </sst>
 </file>
@@ -985,8 +985,8 @@
   </sheetPr>
   <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1010,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
@@ -1034,7 +1034,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
         <v>67</v>
@@ -1049,13 +1049,13 @@
         <v>54</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1064,13 +1064,13 @@
         <v>56</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1079,13 +1079,13 @@
         <v>70</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
@@ -1109,7 +1109,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
         <v>42</v>
@@ -1121,31 +1121,31 @@
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
         <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1154,13 +1154,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
         <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -1182,13 +1182,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1210,13 +1210,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1239,13 +1239,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -1268,7 +1268,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
         <v>44</v>
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
@@ -1326,7 +1326,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
@@ -1355,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
         <v>47</v>
@@ -1384,13 +1384,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
         <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -1413,13 +1413,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1442,13 +1442,13 @@
         <v>12</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -1471,13 +1471,13 @@
         <v>13</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
         <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -1500,7 +1500,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
         <v>75</v>
@@ -1529,7 +1529,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
@@ -1560,13 +1560,13 @@
         <v>25</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1575,13 +1575,13 @@
         <v>26</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1590,13 +1590,13 @@
         <v>27</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,13 +1605,13 @@
         <v>63</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
         <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1620,13 +1620,13 @@
         <v>28</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1635,13 +1635,13 @@
         <v>29</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1650,30 +1650,30 @@
         <v>60</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
         <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
         <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1681,16 +1681,16 @@
         <v>73</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1701,22 +1701,22 @@
         <v>81</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
         <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -1728,10 +1728,10 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
         <v>84</v>
@@ -1743,55 +1743,55 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" t="s">
-        <v>88</v>
-      </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" t="s">
-        <v>89</v>
-      </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1802,99 +1802,99 @@
         <v>14</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
         <v>52</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">

--- a/wls-hydr/sysconfig_discovery.xlsx
+++ b/wls-hydr/sysconfig_discovery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\OraHubProjects\fmw-maa\wls-hydr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17226189-1A01-41AC-AB72-1E1A1638AF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEF6FCB-1B9C-41A0-A9B9-0E7A66B87E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,18 +33,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Webtier Subnet Name</t>
-  </si>
-  <si>
-    <t>Dbtier Subnet Name</t>
-  </si>
-  <si>
-    <t>Fsstier Subnet Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midtier Subnet Name </t>
-  </si>
-  <si>
     <t>Is the webtier private?</t>
   </si>
   <si>
@@ -485,6 +473,18 @@
   </si>
   <si>
     <t>Certificate private key (in PEM format)</t>
+  </si>
+  <si>
+    <t>Webtier Subnet Name                 (if it already exists, it will be reused)</t>
+  </si>
+  <si>
+    <t>Midtier Subnet Name                   (if it already exists, it will be reused)</t>
+  </si>
+  <si>
+    <t>Dbtier Subnet Name                      (if it already exists, it will be reused)</t>
+  </si>
+  <si>
+    <t>Fsstier Subnet Name                     (if it already exists, it will be reused)</t>
   </si>
 </sst>
 </file>
@@ -985,8 +985,8 @@
   </sheetPr>
   <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,20 +1004,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
@@ -1028,76 +1028,76 @@
     </row>
     <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
         <v>99</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
@@ -1106,13 +1106,13 @@
     <row r="7" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -1121,46 +1121,46 @@
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -1179,16 +1179,16 @@
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="5" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1207,16 +1207,16 @@
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1236,16 +1236,16 @@
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -1265,13 +1265,13 @@
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -1294,13 +1294,13 @@
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -1323,13 +1323,13 @@
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
@@ -1352,13 +1352,13 @@
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
@@ -1381,16 +1381,16 @@
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -1410,16 +1410,16 @@
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1439,16 +1439,16 @@
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -1468,16 +1468,16 @@
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -1497,13 +1497,13 @@
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
         <v>0</v>
@@ -1526,13 +1526,13 @@
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E23" s="7">
         <v>22</v>
@@ -1554,172 +1554,172 @@
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E34">
         <v>10</v>
@@ -1728,13 +1728,13 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E35">
         <v>100</v>
@@ -1743,163 +1743,163 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>140</v>
-      </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1908,17 +1908,17 @@
     </row>
     <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
@@ -1936,12 +1936,12 @@
     </row>
     <row r="62" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1949,12 +1949,12 @@
     </row>
     <row r="65" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1965,27 +1965,27 @@
     </row>
     <row r="69" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1996,12 +1996,12 @@
     </row>
     <row r="76" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +2012,7 @@
     <mergeCell ref="A33:A39"/>
     <mergeCell ref="A41:A47"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="7">
+  <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes if this subnet should be private, otherwise select No" sqref="B14:B17" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is the mount target name displayed in OCI console" sqref="B24" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23" xr:uid="{00000000-0002-0000-0000-000002000000}">
